--- a/natmiOut/OldD4/LR-pairs_lrc2p/L1cam-Ephb2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/L1cam-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.89565561924442</v>
+        <v>8.467421333333334</v>
       </c>
       <c r="H2">
-        <v>7.89565561924442</v>
+        <v>25.402264</v>
       </c>
       <c r="I2">
-        <v>0.2740832302426847</v>
+        <v>0.2732469334691616</v>
       </c>
       <c r="J2">
-        <v>0.2740832302426847</v>
+        <v>0.312800300005396</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>5.54901875760126</v>
+        <v>0.017772</v>
       </c>
       <c r="N2">
-        <v>5.54901875760126</v>
+        <v>0.053316</v>
       </c>
       <c r="O2">
-        <v>0.9139636048412911</v>
+        <v>0.002629212535656932</v>
       </c>
       <c r="P2">
-        <v>0.9139636048412911</v>
+        <v>0.002699072137000843</v>
       </c>
       <c r="Q2">
-        <v>43.81314113474708</v>
+        <v>0.150483011936</v>
       </c>
       <c r="R2">
-        <v>43.81314113474708</v>
+        <v>1.354347107424</v>
       </c>
       <c r="S2">
-        <v>0.2505020971391497</v>
+        <v>0.0007184242628069352</v>
       </c>
       <c r="T2">
-        <v>0.2505020971391497</v>
+        <v>0.000844270574190069</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.89565561924442</v>
+        <v>8.467421333333334</v>
       </c>
       <c r="H3">
-        <v>7.89565561924442</v>
+        <v>25.402264</v>
       </c>
       <c r="I3">
-        <v>0.2740832302426847</v>
+        <v>0.2732469334691616</v>
       </c>
       <c r="J3">
-        <v>0.2740832302426847</v>
+        <v>0.312800300005396</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.522359498828154</v>
+        <v>6.174032333333334</v>
       </c>
       <c r="N3">
-        <v>0.522359498828154</v>
+        <v>18.522097</v>
       </c>
       <c r="O3">
-        <v>0.08603639515870888</v>
+        <v>0.9133942834993933</v>
       </c>
       <c r="P3">
-        <v>0.08603639515870888</v>
+        <v>0.9376636644070619</v>
       </c>
       <c r="Q3">
-        <v>4.124370712188213</v>
+        <v>52.27813309195646</v>
       </c>
       <c r="R3">
-        <v>4.124370712188213</v>
+        <v>470.5031978276081</v>
       </c>
       <c r="S3">
-        <v>0.02358113310353501</v>
+        <v>0.2495821870144712</v>
       </c>
       <c r="T3">
-        <v>0.02358113310353501</v>
+        <v>0.2933014755306879</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.307202658978419</v>
+        <v>8.467421333333334</v>
       </c>
       <c r="H4">
-        <v>0.307202658978419</v>
+        <v>25.402264</v>
       </c>
       <c r="I4">
-        <v>0.01066397791042518</v>
+        <v>0.2732469334691616</v>
       </c>
       <c r="J4">
-        <v>0.01066397791042518</v>
+        <v>0.312800300005396</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>5.54901875760126</v>
+        <v>0.03562666666666667</v>
       </c>
       <c r="N4">
-        <v>5.54901875760126</v>
+        <v>0.10688</v>
       </c>
       <c r="O4">
-        <v>0.9139636048412911</v>
+        <v>0.005270654884293887</v>
       </c>
       <c r="P4">
-        <v>0.9139636048412911</v>
+        <v>0.005410699039737605</v>
       </c>
       <c r="Q4">
-        <v>1.70467331705623</v>
+        <v>0.3016659973688889</v>
       </c>
       <c r="R4">
-        <v>1.70467331705623</v>
+        <v>2.71499397632</v>
       </c>
       <c r="S4">
-        <v>0.009746487692960099</v>
+        <v>0.001440190284507563</v>
       </c>
       <c r="T4">
-        <v>0.009746487692960099</v>
+        <v>0.001692468282868831</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.307202658978419</v>
+        <v>8.467421333333334</v>
       </c>
       <c r="H5">
-        <v>0.307202658978419</v>
+        <v>25.402264</v>
       </c>
       <c r="I5">
-        <v>0.01066397791042518</v>
+        <v>0.2732469334691616</v>
       </c>
       <c r="J5">
-        <v>0.01066397791042518</v>
+        <v>0.312800300005396</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.522359498828154</v>
+        <v>0.007147333333333333</v>
       </c>
       <c r="N5">
-        <v>0.522359498828154</v>
+        <v>0.021442</v>
       </c>
       <c r="O5">
-        <v>0.08603639515870888</v>
+        <v>0.001057385685151848</v>
       </c>
       <c r="P5">
-        <v>0.08603639515870888</v>
+        <v>0.001085480995603047</v>
       </c>
       <c r="Q5">
-        <v>0.1604702269826432</v>
+        <v>0.06051948274311111</v>
       </c>
       <c r="R5">
-        <v>0.1604702269826432</v>
+        <v>0.5446753446880001</v>
       </c>
       <c r="S5">
-        <v>0.0009174902174650837</v>
+        <v>0.0002889273959619309</v>
       </c>
       <c r="T5">
-        <v>0.0009174902174650837</v>
+        <v>0.0003395387810747892</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.71494890149125</v>
+        <v>8.467421333333334</v>
       </c>
       <c r="H6">
-        <v>3.71494890149125</v>
+        <v>25.402264</v>
       </c>
       <c r="I6">
-        <v>0.1289576501570711</v>
+        <v>0.2732469334691616</v>
       </c>
       <c r="J6">
-        <v>0.1289576501570711</v>
+        <v>0.312800300005396</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.54901875760126</v>
+        <v>0.52486</v>
       </c>
       <c r="N6">
-        <v>5.54901875760126</v>
+        <v>1.04972</v>
       </c>
       <c r="O6">
-        <v>0.9139636048412911</v>
+        <v>0.07764846339550401</v>
       </c>
       <c r="P6">
-        <v>0.9139636048412911</v>
+        <v>0.05314108342059654</v>
       </c>
       <c r="Q6">
-        <v>20.61432113790514</v>
+        <v>4.444210761013334</v>
       </c>
       <c r="R6">
-        <v>20.61432113790514</v>
+        <v>26.66526456608</v>
       </c>
       <c r="S6">
-        <v>0.1178625988094188</v>
+        <v>0.02121720451141391</v>
       </c>
       <c r="T6">
-        <v>0.1178625988094188</v>
+        <v>0.01662254683657437</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.71494890149125</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="H7">
-        <v>3.71494890149125</v>
+        <v>1.003042</v>
       </c>
       <c r="I7">
-        <v>0.1289576501570711</v>
+        <v>0.01078951666043526</v>
       </c>
       <c r="J7">
-        <v>0.1289576501570711</v>
+        <v>0.01235133366529898</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.522359498828154</v>
+        <v>0.017772</v>
       </c>
       <c r="N7">
-        <v>0.522359498828154</v>
+        <v>0.053316</v>
       </c>
       <c r="O7">
-        <v>0.08603639515870888</v>
+        <v>0.002629212535656932</v>
       </c>
       <c r="P7">
-        <v>0.08603639515870888</v>
+        <v>0.002699072137000843</v>
       </c>
       <c r="Q7">
-        <v>1.94053884635517</v>
+        <v>0.005942020807999999</v>
       </c>
       <c r="R7">
-        <v>1.94053884635517</v>
+        <v>0.053478187272</v>
       </c>
       <c r="S7">
-        <v>0.01109505134765231</v>
+        <v>2.836793245729569E-05</v>
       </c>
       <c r="T7">
-        <v>0.01109505134765231</v>
+        <v>3.333714055080898E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.02548140520171</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="H8">
-        <v>6.02548140520171</v>
+        <v>1.003042</v>
       </c>
       <c r="I8">
-        <v>0.2091635561307517</v>
+        <v>0.01078951666043526</v>
       </c>
       <c r="J8">
-        <v>0.2091635561307517</v>
+        <v>0.01235133366529898</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.54901875760126</v>
+        <v>6.174032333333334</v>
       </c>
       <c r="N8">
-        <v>5.54901875760126</v>
+        <v>18.522097</v>
       </c>
       <c r="O8">
-        <v>0.9139636048412911</v>
+        <v>0.9133942834993933</v>
       </c>
       <c r="P8">
-        <v>0.9139636048412911</v>
+        <v>0.9376636644070619</v>
       </c>
       <c r="Q8">
-        <v>33.43550934104189</v>
+        <v>2.064271246563778</v>
       </c>
       <c r="R8">
-        <v>33.43550934104189</v>
+        <v>18.578441219074</v>
       </c>
       <c r="S8">
-        <v>0.1911678777626856</v>
+        <v>0.009855082839363028</v>
       </c>
       <c r="T8">
-        <v>0.1911678777626856</v>
+        <v>0.01158139678491855</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.02548140520171</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="H9">
-        <v>6.02548140520171</v>
+        <v>1.003042</v>
       </c>
       <c r="I9">
-        <v>0.2091635561307517</v>
+        <v>0.01078951666043526</v>
       </c>
       <c r="J9">
-        <v>0.2091635561307517</v>
+        <v>0.01235133366529898</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.522359498828154</v>
+        <v>0.03562666666666667</v>
       </c>
       <c r="N9">
-        <v>0.522359498828154</v>
+        <v>0.10688</v>
       </c>
       <c r="O9">
-        <v>0.08603639515870888</v>
+        <v>0.005270654884293887</v>
       </c>
       <c r="P9">
-        <v>0.08603639515870888</v>
+        <v>0.005410699039737605</v>
       </c>
       <c r="Q9">
-        <v>3.147467447019526</v>
+        <v>0.01191168099555556</v>
       </c>
       <c r="R9">
-        <v>3.147467447019526</v>
+        <v>0.10720512896</v>
       </c>
       <c r="S9">
-        <v>0.01799567836806614</v>
+        <v>5.686781868549335E-05</v>
       </c>
       <c r="T9">
-        <v>0.01799567836806614</v>
+        <v>6.682934920231196E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.8642222294207</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="H10">
-        <v>10.8642222294207</v>
+        <v>1.003042</v>
       </c>
       <c r="I10">
-        <v>0.3771315855590672</v>
+        <v>0.01078951666043526</v>
       </c>
       <c r="J10">
-        <v>0.3771315855590672</v>
+        <v>0.01235133366529898</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>5.54901875760126</v>
+        <v>0.007147333333333333</v>
       </c>
       <c r="N10">
-        <v>5.54901875760126</v>
+        <v>0.021442</v>
       </c>
       <c r="O10">
-        <v>0.9139636048412911</v>
+        <v>0.001057385685151848</v>
       </c>
       <c r="P10">
-        <v>0.9139636048412911</v>
+        <v>0.001085480995603047</v>
       </c>
       <c r="Q10">
-        <v>60.28577293780404</v>
+        <v>0.002389691840444444</v>
       </c>
       <c r="R10">
-        <v>60.28577293780404</v>
+        <v>0.021507226564</v>
       </c>
       <c r="S10">
-        <v>0.3446845434370769</v>
+        <v>1.140868046645161E-05</v>
       </c>
       <c r="T10">
-        <v>0.3446845434370769</v>
+        <v>1.340713796403418E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1092,52 +1092,982 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.8642222294207</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="H11">
-        <v>10.8642222294207</v>
+        <v>1.003042</v>
       </c>
       <c r="I11">
-        <v>0.3771315855590672</v>
+        <v>0.01078951666043526</v>
       </c>
       <c r="J11">
-        <v>0.3771315855590672</v>
+        <v>0.01235133366529898</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.522359498828154</v>
+        <v>0.52486</v>
       </c>
       <c r="N11">
-        <v>0.522359498828154</v>
+        <v>1.04972</v>
       </c>
       <c r="O11">
-        <v>0.08603639515870888</v>
+        <v>0.07764846339550401</v>
       </c>
       <c r="P11">
-        <v>0.08603639515870888</v>
+        <v>0.05314108342059654</v>
       </c>
       <c r="Q11">
-        <v>5.675029678917887</v>
+        <v>0.1754855413733333</v>
       </c>
       <c r="R11">
-        <v>5.675029678917887</v>
+        <v>1.05291324824</v>
       </c>
       <c r="S11">
-        <v>0.03244704212199034</v>
+        <v>0.0008377893894629876</v>
       </c>
       <c r="T11">
-        <v>0.03244704212199034</v>
+        <v>0.0006563632526632756</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.140032333333333</v>
+      </c>
+      <c r="H12">
+        <v>12.420097</v>
+      </c>
+      <c r="I12">
+        <v>0.1336004309946363</v>
+      </c>
+      <c r="J12">
+        <v>0.1529395201819853</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.017772</v>
+      </c>
+      <c r="N12">
+        <v>0.053316</v>
+      </c>
+      <c r="O12">
+        <v>0.002629212535656932</v>
+      </c>
+      <c r="P12">
+        <v>0.002699072137000843</v>
+      </c>
+      <c r="Q12">
+        <v>0.07357665462799999</v>
+      </c>
+      <c r="R12">
+        <v>0.662189891652</v>
+      </c>
+      <c r="S12">
+        <v>0.0003512639279402665</v>
+      </c>
+      <c r="T12">
+        <v>0.0004127947975694746</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.140032333333333</v>
+      </c>
+      <c r="H13">
+        <v>12.420097</v>
+      </c>
+      <c r="I13">
+        <v>0.1336004309946363</v>
+      </c>
+      <c r="J13">
+        <v>0.1529395201819853</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.174032333333334</v>
+      </c>
+      <c r="N13">
+        <v>18.522097</v>
+      </c>
+      <c r="O13">
+        <v>0.9133942834993933</v>
+      </c>
+      <c r="P13">
+        <v>0.9376636644070619</v>
+      </c>
+      <c r="Q13">
+        <v>25.56069348704544</v>
+      </c>
+      <c r="R13">
+        <v>230.046241383409</v>
+      </c>
+      <c r="S13">
+        <v>0.1220298699435559</v>
+      </c>
+      <c r="T13">
+        <v>0.1434058309264981</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.140032333333333</v>
+      </c>
+      <c r="H14">
+        <v>12.420097</v>
+      </c>
+      <c r="I14">
+        <v>0.1336004309946363</v>
+      </c>
+      <c r="J14">
+        <v>0.1529395201819853</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.03562666666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.10688</v>
+      </c>
+      <c r="O14">
+        <v>0.005270654884293887</v>
+      </c>
+      <c r="P14">
+        <v>0.005410699039737605</v>
+      </c>
+      <c r="Q14">
+        <v>0.1474955519288889</v>
+      </c>
+      <c r="R14">
+        <v>1.32745996736</v>
+      </c>
+      <c r="S14">
+        <v>0.000704161764165648</v>
+      </c>
+      <c r="T14">
+        <v>0.0008275097149865978</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.140032333333333</v>
+      </c>
+      <c r="H15">
+        <v>12.420097</v>
+      </c>
+      <c r="I15">
+        <v>0.1336004309946363</v>
+      </c>
+      <c r="J15">
+        <v>0.1529395201819853</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.007147333333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.021442</v>
+      </c>
+      <c r="O15">
+        <v>0.001057385685151848</v>
+      </c>
+      <c r="P15">
+        <v>0.001085480995603047</v>
+      </c>
+      <c r="Q15">
+        <v>0.02959019109711111</v>
+      </c>
+      <c r="R15">
+        <v>0.266311719874</v>
+      </c>
+      <c r="S15">
+        <v>0.0001412671832638457</v>
+      </c>
+      <c r="T15">
+        <v>0.0001660129426341938</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.140032333333333</v>
+      </c>
+      <c r="H16">
+        <v>12.420097</v>
+      </c>
+      <c r="I16">
+        <v>0.1336004309946363</v>
+      </c>
+      <c r="J16">
+        <v>0.1529395201819853</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.52486</v>
+      </c>
+      <c r="N16">
+        <v>1.04972</v>
+      </c>
+      <c r="O16">
+        <v>0.07764846339550401</v>
+      </c>
+      <c r="P16">
+        <v>0.05314108342059654</v>
+      </c>
+      <c r="Q16">
+        <v>2.172937370473333</v>
+      </c>
+      <c r="R16">
+        <v>13.03762422284</v>
+      </c>
+      <c r="S16">
+        <v>0.01037386817571057</v>
+      </c>
+      <c r="T16">
+        <v>0.008127371800296889</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>6.291073</v>
+      </c>
+      <c r="H17">
+        <v>18.873219</v>
+      </c>
+      <c r="I17">
+        <v>0.2030153381778063</v>
+      </c>
+      <c r="J17">
+        <v>0.2324024569332694</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.017772</v>
+      </c>
+      <c r="N17">
+        <v>0.053316</v>
+      </c>
+      <c r="O17">
+        <v>0.002629212535656932</v>
+      </c>
+      <c r="P17">
+        <v>0.002699072137000843</v>
+      </c>
+      <c r="Q17">
+        <v>0.111804949356</v>
+      </c>
+      <c r="R17">
+        <v>1.006244544204</v>
+      </c>
+      <c r="S17">
+        <v>0.0005337704720677196</v>
+      </c>
+      <c r="T17">
+        <v>0.0006272709960791257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>6.291073</v>
+      </c>
+      <c r="H18">
+        <v>18.873219</v>
+      </c>
+      <c r="I18">
+        <v>0.2030153381778063</v>
+      </c>
+      <c r="J18">
+        <v>0.2324024569332694</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>6.174032333333334</v>
+      </c>
+      <c r="N18">
+        <v>18.522097</v>
+      </c>
+      <c r="O18">
+        <v>0.9133942834993933</v>
+      </c>
+      <c r="P18">
+        <v>0.9376636644070619</v>
+      </c>
+      <c r="Q18">
+        <v>38.84128811336033</v>
+      </c>
+      <c r="R18">
+        <v>349.571593020243</v>
+      </c>
+      <c r="S18">
+        <v>0.1854330493543044</v>
+      </c>
+      <c r="T18">
+        <v>0.2179153393852538</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>6.291073</v>
+      </c>
+      <c r="H19">
+        <v>18.873219</v>
+      </c>
+      <c r="I19">
+        <v>0.2030153381778063</v>
+      </c>
+      <c r="J19">
+        <v>0.2324024569332694</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.03562666666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.10688</v>
+      </c>
+      <c r="O19">
+        <v>0.005270654884293887</v>
+      </c>
+      <c r="P19">
+        <v>0.005410699039737605</v>
+      </c>
+      <c r="Q19">
+        <v>0.2241299607466667</v>
+      </c>
+      <c r="R19">
+        <v>2.01716964672</v>
+      </c>
+      <c r="S19">
+        <v>0.00107002378375343</v>
+      </c>
+      <c r="T19">
+        <v>0.001257459750561501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>6.291073</v>
+      </c>
+      <c r="H20">
+        <v>18.873219</v>
+      </c>
+      <c r="I20">
+        <v>0.2030153381778063</v>
+      </c>
+      <c r="J20">
+        <v>0.2324024569332694</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.007147333333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.021442</v>
+      </c>
+      <c r="O20">
+        <v>0.001057385685151848</v>
+      </c>
+      <c r="P20">
+        <v>0.001085480995603047</v>
+      </c>
+      <c r="Q20">
+        <v>0.04496439575533333</v>
+      </c>
+      <c r="R20">
+        <v>0.404679561798</v>
+      </c>
+      <c r="S20">
+        <v>0.0002146655124554739</v>
+      </c>
+      <c r="T20">
+        <v>0.0002522684503325196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>6.291073</v>
+      </c>
+      <c r="H21">
+        <v>18.873219</v>
+      </c>
+      <c r="I21">
+        <v>0.2030153381778063</v>
+      </c>
+      <c r="J21">
+        <v>0.2324024569332694</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.52486</v>
+      </c>
+      <c r="N21">
+        <v>1.04972</v>
+      </c>
+      <c r="O21">
+        <v>0.07764846339550401</v>
+      </c>
+      <c r="P21">
+        <v>0.05314108342059654</v>
+      </c>
+      <c r="Q21">
+        <v>3.30193257478</v>
+      </c>
+      <c r="R21">
+        <v>19.81159544868</v>
+      </c>
+      <c r="S21">
+        <v>0.01576382905522526</v>
+      </c>
+      <c r="T21">
+        <v>0.01235011835104246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>11.755292</v>
+      </c>
+      <c r="H22">
+        <v>23.510584</v>
+      </c>
+      <c r="I22">
+        <v>0.3793477806979606</v>
+      </c>
+      <c r="J22">
+        <v>0.2895063892140504</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.017772</v>
+      </c>
+      <c r="N22">
+        <v>0.053316</v>
+      </c>
+      <c r="O22">
+        <v>0.002629212535656932</v>
+      </c>
+      <c r="P22">
+        <v>0.002699072137000843</v>
+      </c>
+      <c r="Q22">
+        <v>0.208915049424</v>
+      </c>
+      <c r="R22">
+        <v>1.253490296544</v>
+      </c>
+      <c r="S22">
+        <v>0.0009973859403847147</v>
+      </c>
+      <c r="T22">
+        <v>0.000781398628611365</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>11.755292</v>
+      </c>
+      <c r="H23">
+        <v>23.510584</v>
+      </c>
+      <c r="I23">
+        <v>0.3793477806979606</v>
+      </c>
+      <c r="J23">
+        <v>0.2895063892140504</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>6.174032333333334</v>
+      </c>
+      <c r="N23">
+        <v>18.522097</v>
+      </c>
+      <c r="O23">
+        <v>0.9133942834993933</v>
+      </c>
+      <c r="P23">
+        <v>0.9376636644070619</v>
+      </c>
+      <c r="Q23">
+        <v>72.57755289577466</v>
+      </c>
+      <c r="R23">
+        <v>435.465317374648</v>
+      </c>
+      <c r="S23">
+        <v>0.3464940943476987</v>
+      </c>
+      <c r="T23">
+        <v>0.2714596217797036</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>11.755292</v>
+      </c>
+      <c r="H24">
+        <v>23.510584</v>
+      </c>
+      <c r="I24">
+        <v>0.3793477806979606</v>
+      </c>
+      <c r="J24">
+        <v>0.2895063892140504</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.03562666666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.10688</v>
+      </c>
+      <c r="O24">
+        <v>0.005270654884293887</v>
+      </c>
+      <c r="P24">
+        <v>0.005410699039737605</v>
+      </c>
+      <c r="Q24">
+        <v>0.4188018696533333</v>
+      </c>
+      <c r="R24">
+        <v>2.51281121792</v>
+      </c>
+      <c r="S24">
+        <v>0.001999411233181752</v>
+      </c>
+      <c r="T24">
+        <v>0.001566431942118364</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>11.755292</v>
+      </c>
+      <c r="H25">
+        <v>23.510584</v>
+      </c>
+      <c r="I25">
+        <v>0.3793477806979606</v>
+      </c>
+      <c r="J25">
+        <v>0.2895063892140504</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.007147333333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.021442</v>
+      </c>
+      <c r="O25">
+        <v>0.001057385685151848</v>
+      </c>
+      <c r="P25">
+        <v>0.001085480995603047</v>
+      </c>
+      <c r="Q25">
+        <v>0.08401899035466666</v>
+      </c>
+      <c r="R25">
+        <v>0.504113942128</v>
+      </c>
+      <c r="S25">
+        <v>0.0004011169130041461</v>
+      </c>
+      <c r="T25">
+        <v>0.0003142536835975108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>11.755292</v>
+      </c>
+      <c r="H26">
+        <v>23.510584</v>
+      </c>
+      <c r="I26">
+        <v>0.3793477806979606</v>
+      </c>
+      <c r="J26">
+        <v>0.2895063892140504</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.52486</v>
+      </c>
+      <c r="N26">
+        <v>1.04972</v>
+      </c>
+      <c r="O26">
+        <v>0.07764846339550401</v>
+      </c>
+      <c r="P26">
+        <v>0.05314108342059654</v>
+      </c>
+      <c r="Q26">
+        <v>6.169882559119999</v>
+      </c>
+      <c r="R26">
+        <v>24.67953023648</v>
+      </c>
+      <c r="S26">
+        <v>0.02945577226369128</v>
+      </c>
+      <c r="T26">
+        <v>0.01538468318001954</v>
       </c>
     </row>
   </sheetData>
